--- a/bh3/549881390143527390_2021-07-21_19-40-38.xlsx
+++ b/bh3/549881390143527390_2021-07-21_19-40-38.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4961469800</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:40:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44407.73662037037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>5028782102</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:39:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44407.73550925926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:33:37</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44402.94001157407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -761,10 +771,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:53:31</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44402.91216435185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -836,10 +844,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:16:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44402.88627314815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -916,10 +922,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:43:43</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44402.86369212963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>4977647648</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:25:48</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44401.26791666666</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1070,10 +1072,8 @@
           <t>4977644014</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:25:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44401.26741898148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1149,10 +1149,8 @@
           <t>4972964551</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-23 15:25:35</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44400.6427662037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1220,10 +1218,8 @@
           <t>4971128996</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-23 10:28:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44400.43634259259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1283,10 +1279,8 @@
           <t>4969675951</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-23 01:05:27</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44400.04545138889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1346,10 +1340,8 @@
           <t>4969659942</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-23 01:04:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44400.04467592593</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1422,10 +1414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:37:39</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44399.77614583333</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1489,10 +1479,8 @@
           <t>4961027062</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:05:42</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44399.75395833333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>4961469800</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:25:33</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44399.64274305556</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>4965044192</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:21:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44399.55666666666</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1707,10 +1691,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:38:59</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44399.52707175926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1774,10 +1756,8 @@
           <t>4964504780</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:02:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44399.50206018519</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1845,10 +1825,8 @@
           <t>4964510578</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:02:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44399.501875</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1916,10 +1894,8 @@
           <t>4964505702</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:02:27</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44399.50170138889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1987,10 +1963,8 @@
           <t>4964503713</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:02:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44399.50170138889</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>4964489128</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:00:16</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44399.50018518518</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2137,10 +2109,8 @@
           <t>4962423470</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:31:33</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44399.48024305556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2212,10 +2182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44399.42697916667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2285,10 +2253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:56</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44399.42009259259</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2356,10 +2322,8 @@
           <t>4963824336</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:43</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44399.4178587963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2435,10 +2399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:54:22</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44399.41275462963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2510,10 +2472,8 @@
           <t>4963761899</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:47:28</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44399.40796296296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2585,10 +2545,8 @@
           <t>4963718002</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:38:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44399.4016087963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2656,10 +2614,8 @@
           <t>4963407403</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:37:48</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44399.40125</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2727,10 +2683,8 @@
           <t>4962423470</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:23:24</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44399.39125</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2807,10 +2761,8 @@
           <t>4962514677</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:20:42</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44399.389375</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2887,10 +2839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:55:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44399.37211805556</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2966,10 +2916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:47:13</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44399.36612268518</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3041,10 +2989,8 @@
           <t>4963050926</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:46:20</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44399.36550925926</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3116,10 +3062,8 @@
           <t>4963407403</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:25:34</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44399.35108796296</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3183,10 +3127,8 @@
           <t>4960845414</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:18:10</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44399.22094907407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3254,10 +3196,8 @@
           <t>4963056418</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:15:40</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44399.21921296296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3329,10 +3269,8 @@
           <t>4960642629</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:15:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44399.21907407408</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3404,10 +3342,8 @@
           <t>4963052211</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:14:58</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44399.21872685185</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3479,10 +3415,8 @@
           <t>4963052133</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:14:39</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44399.21850694445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3554,10 +3488,8 @@
           <t>4963049144</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:14:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44399.21829861111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3629,10 +3561,8 @@
           <t>4960845414</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:13:50</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44399.21793981481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3704,10 +3634,8 @@
           <t>4963048779</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:12:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44399.21730324074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3779,10 +3707,8 @@
           <t>4963051587</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:12:35</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44399.21707175926</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3854,10 +3780,8 @@
           <t>4961139932</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:12:09</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44399.21677083334</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3929,10 +3853,8 @@
           <t>4961469800</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:11:42</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44399.21645833334</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4004,10 +3926,8 @@
           <t>4963055070</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:10:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44399.2155787037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4079,10 +3999,8 @@
           <t>4963050926</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:10:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44399.21540509259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4154,10 +4072,8 @@
           <t>4963050845</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:09:54</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44399.21520833333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4229,10 +4145,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:08:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44399.21430555556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4304,10 +4218,8 @@
           <t>4963050002</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-22 05:06:47</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44399.21304398148</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4379,10 +4291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-22 03:20:13</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44399.13903935185</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4450,10 +4360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:46:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44399.07423611111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4529,10 +4437,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:26:04</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44399.05976851852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4600,10 +4506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:23:58</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44399.05831018519</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4675,10 +4579,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:17:32</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44399.05384259259</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4755,10 +4657,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:16:41</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44399.05325231481</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4835,10 +4735,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:15:11</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44399.05221064815</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4906,10 +4804,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:13:31</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44399.05105324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4986,10 +4882,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:09:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44399.0483912037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5096,10 +4990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:09:24</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44399.04819444445</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5167,10 +5059,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:09:00</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44399.04791666667</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5277,10 +5167,8 @@
           <t>4962596832</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:08:56</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44399.04787037037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5348,10 +5236,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:08:56</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44399.04787037037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5428,10 +5314,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:07:26</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44399.0468287037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5508,10 +5392,8 @@
           <t>4962517778</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:52:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44399.03625</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5587,10 +5469,8 @@
           <t>4962514677</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:50:58</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44399.03539351852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5662,10 +5542,8 @@
           <t>4960845414</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:47:35</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44399.03304398148</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5741,10 +5619,8 @@
           <t>4960845414</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:35:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44399.02457175926</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5813,10 +5689,8 @@
           <t>4962423470</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:33:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44399.02291666667</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5888,10 +5762,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:21:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44399.01525462963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5959,10 +5831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:21:08</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44399.01467592592</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6026,10 +5896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:18:58</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44399.0131712963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6097,10 +5965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:17:56</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44399.0124537037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6168,10 +6034,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:15:56</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44399.01106481482</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6248,10 +6112,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:13:07</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44399.00910879629</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6328,10 +6190,8 @@
           <t>4960344654</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:11:50</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44399.00821759259</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6399,10 +6259,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:04:08</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44399.00287037037</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6470,10 +6328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:03:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44399.00269675926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6537,10 +6393,8 @@
           <t>4960950707</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:03:52</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44399.00268518519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6616,10 +6470,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:59:27</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44398.99961805555</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6696,10 +6548,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:50:38</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44398.99349537037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6775,10 +6625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:49:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44398.99275462963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6850,10 +6698,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:43:47</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44398.98873842593</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6921,10 +6767,8 @@
           <t>4961864926</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:31:14</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44398.98002314815</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6988,10 +6832,8 @@
           <t>4961896721</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:29:55</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44398.97910879629</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7068,10 +6910,8 @@
           <t>4961973090</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:24:40</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44398.97546296296</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7139,10 +6979,8 @@
           <t>4961942566</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:20:45</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44398.97274305556</v>
       </c>
       <c r="I90" t="n">
         <v>4</v>
@@ -7206,10 +7044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:18:03</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44398.97086805556</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7277,10 +7113,8 @@
           <t>4961896721</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:14:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44398.96836805555</v>
       </c>
       <c r="I92" t="n">
         <v>6</v>
@@ -7352,10 +7186,8 @@
           <t>4961896420</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:14:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44398.96827546296</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7423,10 +7255,8 @@
           <t>4961080481</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:13:48</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44398.96791666667</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -7494,10 +7324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:11:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44398.96646990741</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7583,10 +7411,8 @@
           <t>4961872674</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:11:27</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44398.96628472222</v>
       </c>
       <c r="I96" t="n">
         <v>7</v>
@@ -7658,10 +7484,8 @@
           <t>4961872504</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:11:24</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44398.96625</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -7738,10 +7562,8 @@
           <t>4961864926</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:10:44</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44398.96578703704</v>
       </c>
       <c r="I98" t="n">
         <v>9</v>
@@ -7813,10 +7635,8 @@
           <t>4961648344</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:24</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44398.96069444445</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7884,10 +7704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:02:40</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44398.96018518518</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7955,10 +7773,8 @@
           <t>4961796206</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:01:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44398.95957175926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8034,10 +7850,8 @@
           <t>4961771481</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:58:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44398.95719907407</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8109,10 +7923,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:55:27</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44398.95517361111</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8180,10 +7992,8 @@
           <t>4961695429</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:48:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44398.95059027777</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8262,10 +8072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:45:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44398.94827546296</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8329,10 +8137,8 @@
           <t>4961648344</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:42:48</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44398.94638888889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8400,10 +8206,8 @@
           <t>4961638456</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:42:06</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44398.94590277778</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8479,10 +8283,8 @@
           <t>4961623738</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:40:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44398.94460648148</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8550,10 +8352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:37:10</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44398.94247685185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8621,10 +8421,8 @@
           <t>4961597621</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:36:48</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44398.94222222222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8692,10 +8490,8 @@
           <t>4961563253</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:32:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44398.93910879629</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8759,10 +8555,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:32:01</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44398.93890046296</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8830,10 +8624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:30:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44398.93759259259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8897,10 +8689,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:30:05</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44398.93755787037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8964,10 +8754,8 @@
           <t>4961542003</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:29:25</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44398.93709490741</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9031,10 +8819,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:28:34</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44398.93650462963</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9108,10 +8894,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:28:10</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44398.93622685185</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9187,10 +8971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:27:32</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44398.93578703704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9260,10 +9042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:27:23</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44398.93568287037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9327,10 +9107,8 @@
           <t>4960846854</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:26:46</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44398.93525462963</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9411,10 +9189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:26:35</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44398.93512731481</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9486,10 +9262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:25:40</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44398.93449074074</v>
       </c>
       <c r="I122" t="n">
         <v>36</v>
@@ -9567,10 +9341,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:23:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44398.9328125</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9638,10 +9410,8 @@
           <t>4960354115</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:22:39</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44398.93239583333</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9717,10 +9487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:21:30</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44398.93159722222</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9788,10 +9556,8 @@
           <t>4961469800</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:21:14</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44398.93141203704</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -9867,10 +9633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:21:05</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44398.93130787037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9938,10 +9702,8 @@
           <t>4961080481</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:39</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44398.93100694445</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -10022,10 +9784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:33</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44398.9309375</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -10089,10 +9849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:24</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44398.93083333333</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10159,10 +9917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:16</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44398.93074074074</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10226,10 +9982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:08</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44398.93064814815</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10300,10 +10054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44398.93059027778</v>
       </c>
       <c r="I133" t="n">
         <v>6</v>
@@ -10367,10 +10119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:19:52</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44398.93046296296</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10446,10 +10196,8 @@
           <t>4961465509</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:19:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44398.93034722222</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10513,10 +10261,8 @@
           <t>4960498347</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:16:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44398.92846064815</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10580,10 +10326,8 @@
           <t>4961434013</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:16:48</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44398.92833333334</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10659,10 +10403,8 @@
           <t>4960950707</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:16:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44398.92831018518</v>
       </c>
       <c r="I138" t="n">
         <v>8</v>
@@ -10730,10 +10472,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:16:22</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44398.92803240741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10797,10 +10537,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:15:52</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44398.92768518518</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10868,10 +10606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:15:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44398.92744212963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10935,10 +10671,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:14:43</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44398.92688657407</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11014,10 +10748,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:14:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44398.9265625</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11093,10 +10825,8 @@
           <t>4960354115</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:13:56</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44398.92634259259</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11160,10 +10890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:12:59</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44398.92568287037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11231,10 +10959,8 @@
           <t>4960950707</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:11:08</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44398.92439814815</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11302,10 +11028,8 @@
           <t>4961395151</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:10:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44398.92398148148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11377,10 +11101,8 @@
           <t>4961385313</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:10:08</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44398.9237037037</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11456,10 +11178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:09:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44398.92328703704</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11527,10 +11247,8 @@
           <t>4960846658</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:58:16</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44398.91546296296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11590,10 +11308,8 @@
           <t>4961174005</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:53:52</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44398.91240740741</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11661,10 +11377,8 @@
           <t>4960534000</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:52:59</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44398.91179398148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11732,10 +11446,8 @@
           <t>4961139932</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:52:08</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44398.9112037037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11799,10 +11511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:50:35</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44398.91012731481</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11874,10 +11584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:49:24</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44398.90930555556</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11953,10 +11661,8 @@
           <t>4961139932</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:47:23</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44398.90790509259</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12016,10 +11722,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:44:22</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44398.90581018518</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12095,10 +11799,8 @@
           <t>4961174005</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:08</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44398.90495370371</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12174,10 +11876,8 @@
           <t>4961167124</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:41:48</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44398.90402777777</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12249,10 +11949,8 @@
           <t>4961027062</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:41:13</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44398.90362268518</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12316,10 +12014,8 @@
           <t>4961161475</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:40:41</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44398.90325231481</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12383,10 +12079,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:38:43</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44398.90188657407</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12450,10 +12144,8 @@
           <t>4961139932</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:38:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44398.901875</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12517,10 +12209,8 @@
           <t>4961080481</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:30:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44398.89583333334</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12592,10 +12282,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:29:30</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44398.89548611111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12659,10 +12347,8 @@
           <t>4961054356</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:29:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44398.89530092593</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12738,10 +12424,8 @@
           <t>4961067972</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:29:00</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44398.89513888889</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12817,10 +12501,8 @@
           <t>4961054356</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:27:43</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44398.89424768519</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12888,10 +12570,8 @@
           <t>4961051243</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:26:54</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44398.89368055556</v>
       </c>
       <c r="I169" t="n">
         <v>2</v>
@@ -12967,10 +12647,8 @@
           <t>4961051243</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:26:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44398.89331018519</v>
       </c>
       <c r="I170" t="n">
         <v>15</v>
@@ -13046,10 +12724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:25:59</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44398.89304398148</v>
       </c>
       <c r="I171" t="n">
         <v>7</v>
@@ -13113,10 +12789,8 @@
           <t>4961050230</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:25:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44398.89299768519</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -13192,10 +12866,8 @@
           <t>4961045916</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:25:09</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44398.89246527778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13259,10 +12931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:23:34</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44398.89136574074</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13326,10 +12996,8 @@
           <t>4961027062</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:22:41</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44398.89075231482</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13393,10 +13061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:19:51</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44398.88878472222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13472,10 +13138,8 @@
           <t>4960351898</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:17:33</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44398.8871875</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13539,10 +13203,8 @@
           <t>4960974102</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:16:45</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44398.88663194444</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13618,10 +13280,8 @@
           <t>4960968853</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:15:26</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44398.8857175926</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13689,10 +13349,8 @@
           <t>4960975758</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:15:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44398.88561342593</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13768,10 +13426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:14:54</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44398.88534722223</v>
       </c>
       <c r="I181" t="n">
         <v>13</v>
@@ -13843,10 +13499,8 @@
           <t>4960962031</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:13:48</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44398.88458333333</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13919,10 +13573,8 @@
           <t>4960950707</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:12:08</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44398.88342592592</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13998,10 +13650,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:10:38</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44398.88238425926</v>
       </c>
       <c r="I184" t="n">
         <v>5</v>
@@ -14069,10 +13719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:10:15</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44398.88211805555</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14140,10 +13788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:10:07</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44398.88202546296</v>
       </c>
       <c r="I186" t="n">
         <v>14</v>
@@ -14215,10 +13861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:09:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44398.88182870371</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14286,10 +13930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:07:50</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44398.88043981481</v>
       </c>
       <c r="I188" t="n">
         <v>6</v>
@@ -14353,10 +13995,8 @@
           <t>4960903993</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:06:48</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44398.87972222222</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14424,10 +14064,8 @@
           <t>4960898387</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:05:31</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44398.87883101852</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14491,10 +14129,8 @@
           <t>4960344654</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:04:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44398.87825231482</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14562,10 +14198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:04:16</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44398.87796296296</v>
       </c>
       <c r="I192" t="n">
         <v>10</v>
@@ -14633,10 +14267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:04:01</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44398.87778935185</v>
       </c>
       <c r="I193" t="n">
         <v>8</v>
@@ -14708,10 +14340,8 @@
           <t>4960874995</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:03:18</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44398.87729166666</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14780,10 +14410,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:03:11</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44398.87721064815</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14847,10 +14475,8 @@
           <t>4960874235</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:03:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44398.87708333333</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14914,10 +14540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:02:00</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44398.87638888889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14989,10 +14613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:01:30</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44398.87604166667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15056,10 +14678,8 @@
           <t>4960862687</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:00:49</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44398.87556712963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15119,10 +14739,8 @@
           <t>4960846854</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:58:13</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44398.87376157408</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -15187,10 +14805,8 @@
           <t>4960846658</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:58:08</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44398.87370370371</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15267,10 +14883,8 @@
           <t>4960642629</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:57:53</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44398.87353009259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15338,10 +14952,8 @@
           <t>4960845414</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:57:40</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44398.87337962963</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15417,10 +15029,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:57:06</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44398.87298611111</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15496,10 +15106,8 @@
           <t>4960819750</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:55:36</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44398.87194444444</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15576,10 +15184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:55:03</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44398.8715625</v>
       </c>
       <c r="I206" t="n">
         <v>12</v>
@@ -15639,10 +15245,8 @@
           <t>4960769597</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:54:39</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44398.87128472222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15710,10 +15314,8 @@
           <t>4960812414</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:54:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44398.87105324074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15785,10 +15387,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:53:26</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44398.87043981482</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15856,10 +15456,8 @@
           <t>4960642629</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:52:58</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44398.87011574074</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15927,10 +15525,8 @@
           <t>4960786653</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:52:19</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44398.86966435185</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16002,10 +15598,8 @@
           <t>4960797264</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:52:06</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44398.86951388889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16073,10 +15667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:51:51</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44398.86934027778</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16140,10 +15732,8 @@
           <t>4960786653</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:50:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44398.86847222222</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16215,10 +15805,8 @@
           <t>4960564271</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:49:08</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44398.8674537037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16290,10 +15878,8 @@
           <t>4960772893</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:49:07</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44398.86744212963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16365,10 +15951,8 @@
           <t>4960777049</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:48:52</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44398.86726851852</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16437,10 +16021,8 @@
           <t>4960769597</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:48:45</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44398.8671875</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16516,10 +16098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:48:45</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44398.8671875</v>
       </c>
       <c r="I219" t="n">
         <v>4</v>
@@ -16595,10 +16175,8 @@
           <t>4960776659</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:48:43</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44398.86716435185</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16666,10 +16244,8 @@
           <t>4960481569</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:47:10</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44398.86608796296</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16733,10 +16309,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:46:21</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44398.86552083334</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16800,10 +16374,8 @@
           <t>4960755317</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:46:11</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44398.86540509259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16875,10 +16447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:44:26</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44398.86418981481</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16950,10 +16520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:43:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44398.86354166667</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17017,10 +16585,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:40:21</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44398.86135416666</v>
       </c>
       <c r="I226" t="n">
         <v>14</v>
@@ -17097,10 +16663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:39:16</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44398.86060185185</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17165,10 +16729,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:38:14</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44398.85988425926</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17236,10 +16798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:37:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44398.85939814815</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17315,10 +16875,8 @@
           <t>4960688762</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:37:31</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44398.85938657408</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17394,10 +16952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:36:58</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44398.85900462963</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -17461,10 +17017,8 @@
           <t>4960669580</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:35:37</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44398.85806712963</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17540,10 +17094,8 @@
           <t>4960669129</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:35:25</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44398.85792824074</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17619,10 +17171,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:35:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44398.85778935185</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17698,10 +17248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:35:01</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44398.85765046296</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17773,10 +17321,8 @@
           <t>4960676679</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:34:57</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44398.85760416667</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17848,10 +17394,8 @@
           <t>4960498347</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:33:55</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44398.85688657407</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17920,10 +17464,8 @@
           <t>4960654989</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:33:34</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44398.85664351852</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17987,10 +17529,8 @@
           <t>4960658619</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:33:24</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44398.85652777777</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18066,10 +17606,8 @@
           <t>4960660919</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:32:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44398.85603009259</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -18145,10 +17683,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:32:36</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44398.85597222222</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18224,10 +17760,8 @@
           <t>4960354115</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:32:23</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44398.85582175926</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18291,10 +17825,8 @@
           <t>4960651945</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:32:15</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44398.85572916667</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18368,10 +17900,8 @@
           <t>4960644975</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:31:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44398.85549768519</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18440,10 +17970,8 @@
           <t>4960498347</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:31:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44398.85547453703</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18507,10 +18035,8 @@
           <t>4960642629</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:30:58</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44398.85483796296</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18578,10 +18104,8 @@
           <t>4960434736</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:30:36</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44398.85458333333</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18646,10 +18170,8 @@
           <t>4960640892</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:30:16</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44398.85435185185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18713,10 +18235,8 @@
           <t>4960640528</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:30:08</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44398.85425925926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18784,10 +18304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:29:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44398.85363425926</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18855,10 +18373,8 @@
           <t>4960624444</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:28:56</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44398.85342592592</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18926,10 +18442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:28:49</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44398.85334490741</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19003,10 +18517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:28:26</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44398.8530787037</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19078,10 +18590,8 @@
           <t>4960621450</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:27:37</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44398.85251157408</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19146,10 +18656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:26:26</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44398.85168981482</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19217,10 +18725,8 @@
           <t>4960580932</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:26:23</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44398.85165509259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19284,10 +18790,8 @@
           <t>4960607810</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:26:02</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44398.85141203704</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19355,10 +18859,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:25:48</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44398.85125</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19426,10 +18928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:24:08</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44398.85009259259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19493,10 +18993,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:22:05</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44398.84866898148</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19560,10 +19058,8 @@
           <t>4960580932</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:22:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44398.8486574074</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19639,10 +19135,8 @@
           <t>4960573257</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:21:43</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44398.84841435185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19706,10 +19200,8 @@
           <t>4960573262</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:21:43</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44398.84841435185</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19785,10 +19277,8 @@
           <t>4960564271</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:20:03</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44398.84725694444</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19864,10 +19354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:46</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44398.84706018519</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19927,10 +19415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:34</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44398.8469212963</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19994,10 +19480,8 @@
           <t>4960563000</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:30</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44398.846875</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -20061,10 +19545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:20</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44398.84675925926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20156,10 +19638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:18:46</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44398.84636574074</v>
       </c>
       <c r="I269" t="n">
         <v>118</v>
@@ -20227,10 +19707,8 @@
           <t>4960314486</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:18:38</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44398.84627314815</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20298,10 +19776,8 @@
           <t>4960555854</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:18:24</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44398.84611111111</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20379,10 +19855,8 @@
           <t>4960534000</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:15:51</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44398.84434027778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20458,10 +19932,8 @@
           <t>4960531858</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:15:00</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44398.84375</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20529,10 +20001,8 @@
           <t>4960405605</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:14:51</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44398.84364583333</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20608,10 +20078,8 @@
           <t>4960530974</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:14:37</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44398.8434837963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20687,10 +20155,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:14:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44398.84310185185</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20758,10 +20224,8 @@
           <t>4960509731</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:13:16</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44398.8425462963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20833,10 +20297,8 @@
           <t>4960405605</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:11:59</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44398.84165509259</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20904,10 +20366,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:11:36</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44398.84138888889</v>
       </c>
       <c r="I279" t="n">
         <v>5</v>
@@ -20983,10 +20443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:11:17</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44398.84116898148</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21046,10 +20504,8 @@
           <t>4960498347</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:10:35</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44398.84068287037</v>
       </c>
       <c r="I281" t="n">
         <v>6</v>
@@ -21126,10 +20582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:09:23</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44398.83984953703</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21193,10 +20647,8 @@
           <t>4960484828</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:09:06</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44398.83965277778</v>
       </c>
       <c r="I283" t="n">
         <v>10</v>
@@ -21268,10 +20720,8 @@
           <t>4960481569</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:08:54</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44398.83951388889</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21339,10 +20789,8 @@
           <t>4960418063</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:08:18</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44398.83909722222</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21410,10 +20858,8 @@
           <t>4960474469</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:57</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44398.83885416666</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21489,10 +20935,8 @@
           <t>4960481569</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:45</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44398.83871527778</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21568,10 +21012,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:43</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44398.83869212963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21635,10 +21077,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:27</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44398.83850694444</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21710,10 +21150,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44398.83837962963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21785,10 +21223,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:06:55</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44398.83813657407</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21868,10 +21304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:06:31</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44398.83785879629</v>
       </c>
       <c r="I292" t="n">
         <v>147</v>
@@ -21941,10 +21375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:06:27</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44398.8378125</v>
       </c>
       <c r="I293" t="n">
         <v>5</v>
@@ -22008,10 +21440,8 @@
           <t>4960461658</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:05:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44398.83701388889</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -22087,10 +21517,8 @@
           <t>4960461369</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:05:11</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44398.83693287037</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22160,10 +21588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:05:10</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44398.83692129629</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22231,10 +21657,8 @@
           <t>4960306949</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:04:51</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44398.83670138889</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22306,10 +21730,8 @@
           <t>4960452823</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:04:14</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44398.83627314815</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22381,10 +21803,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:04:12</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44398.83625</v>
       </c>
       <c r="I299" t="n">
         <v>5</v>
@@ -22456,10 +21876,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44398.83590277778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22523,10 +21941,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:24</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44398.83569444445</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22598,10 +22014,8 @@
           <t>4960450509</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:17</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44398.83561342592</v>
       </c>
       <c r="I302" t="n">
         <v>6</v>
@@ -22677,10 +22091,8 @@
           <t>4960434736</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:13</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44398.83556712963</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22740,10 +22152,8 @@
           <t>4960442203</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:05</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44398.83547453704</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22811,10 +22221,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:02:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44398.83534722222</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22890,10 +22298,8 @@
           <t>4960438034</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:02:17</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44398.83491898148</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22969,10 +22375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:02:07</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44398.83480324074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23044,10 +22448,8 @@
           <t>4960434736</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:02:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44398.83479166667</v>
       </c>
       <c r="I308" t="n">
         <v>5</v>
@@ -23125,10 +22527,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:01:43</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44398.83452546296</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23196,10 +22596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:01:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44398.83431712963</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23267,10 +22665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:01:21</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44398.83427083334</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23334,10 +22730,8 @@
           <t>4960435546</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:01:15</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44398.83420138889</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23405,10 +22799,8 @@
           <t>4960405605</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:42</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44398.83381944444</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -23487,10 +22879,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:30</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44398.83368055556</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23568,10 +22958,8 @@
           <t>4960423678</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:30</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44398.83368055556</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23647,10 +23035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:21</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44398.83357638889</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23714,10 +23100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:05</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44398.83339120371</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23785,10 +23169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:05</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44398.83339120371</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23864,10 +23246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:53</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44398.83325231481</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23943,10 +23323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:37</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44398.83306712963</v>
       </c>
       <c r="I320" t="n">
         <v>75</v>
@@ -24014,10 +23392,8 @@
           <t>4960418063</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:29</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44398.83297453704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24085,10 +23461,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:16</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44398.83282407407</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24152,10 +23526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44398.83266203704</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24227,10 +23599,8 @@
           <t>4960416790</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:00</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44398.83263888889</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24302,10 +23672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:59</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44398.83262731481</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24373,10 +23741,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:59</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44398.83262731481</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -24452,10 +23818,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:23</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44398.83221064815</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24523,10 +23887,8 @@
           <t>4960404873</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:13</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44398.8320949074</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24590,10 +23952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:03</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44398.83197916667</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24657,10 +24017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:36</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44398.83166666667</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24728,10 +24086,8 @@
           <t>4960306949</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:23</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44398.8315162037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24807,10 +24163,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:15</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44398.83142361111</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24874,10 +24228,8 @@
           <t>4960405605</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:09</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44398.83135416666</v>
       </c>
       <c r="I333" t="n">
         <v>6</v>
@@ -24945,10 +24297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:51</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44398.83114583333</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -25024,10 +24374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:44</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44398.83106481482</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25103,10 +24451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:42</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44398.83104166666</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25178,10 +24524,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:39</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44398.83100694444</v>
       </c>
       <c r="I337" t="n">
         <v>9</v>
@@ -25249,10 +24593,8 @@
           <t>4960400585</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:30</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44398.83090277778</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25328,10 +24670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:13</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44398.83070601852</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25400,10 +24740,8 @@
           <t>4960351898</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:56</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44398.83050925926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25477,10 +24815,8 @@
           <t>4960384145</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:18</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44398.83006944445</v>
       </c>
       <c r="I341" t="n">
         <v>7</v>
@@ -25552,10 +24888,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:16</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44398.83004629629</v>
       </c>
       <c r="I342" t="n">
         <v>12</v>
@@ -25619,10 +24953,8 @@
           <t>4960391001</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:13</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44398.83001157407</v>
       </c>
       <c r="I343" t="n">
         <v>20</v>
@@ -25690,10 +25022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:08</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44398.8299537037</v>
       </c>
       <c r="I344" t="n">
         <v>20</v>
@@ -25765,10 +25095,8 @@
           <t>4960390716</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:05</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44398.82991898148</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25846,10 +25174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:47</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44398.82971064815</v>
       </c>
       <c r="I346" t="n">
         <v>4</v>
@@ -25925,10 +25251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:40</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44398.82962962963</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26004,10 +25328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:32</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44398.82953703704</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -26079,10 +25401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:28</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44398.82949074074</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26150,10 +25470,8 @@
           <t>4960379081</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:24</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44398.82944444445</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26222,10 +25540,8 @@
           <t>4960385194</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:19</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44398.82938657407</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26297,10 +25613,8 @@
           <t>4960385085</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:17</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44398.82936342592</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26372,10 +25686,8 @@
           <t>4960378235</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:02</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44398.82918981482</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26451,10 +25763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44398.82916666667</v>
       </c>
       <c r="I354" t="n">
         <v>20</v>
@@ -26518,10 +25828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:47</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44398.8290162037</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26597,10 +25905,8 @@
           <t>4960377347</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:40</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44398.82893518519</v>
       </c>
       <c r="I356" t="n">
         <v>12</v>
@@ -26672,10 +25978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:36</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44398.82888888889</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26743,10 +26047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:29</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44398.82880787037</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26814,10 +26116,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:20</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44398.8287037037</v>
       </c>
       <c r="I359" t="n">
         <v>37</v>
@@ -26893,10 +26193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:11</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44398.82859953704</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26968,10 +26266,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44398.82856481482</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27047,10 +26343,8 @@
           <t>4960369102</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:01</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44398.82848379629</v>
       </c>
       <c r="I362" t="n">
         <v>2</v>
@@ -27118,10 +26412,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:53:00</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44398.82847222222</v>
       </c>
       <c r="I363" t="n">
         <v>5</v>
@@ -27189,10 +26481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:54</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44398.82840277778</v>
       </c>
       <c r="I364" t="n">
         <v>22</v>
@@ -27268,10 +26558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:54</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44398.82840277778</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27343,10 +26631,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:17</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44398.82797453704</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27422,10 +26708,8 @@
           <t>4960363673</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:09</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44398.82788194445</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27497,10 +26781,8 @@
           <t>4960359524</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:04</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44398.82782407408</v>
       </c>
       <c r="I368" t="n">
         <v>16</v>
@@ -27564,10 +26846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:58</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44398.82775462963</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27643,10 +26923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:40</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44398.8275462963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27718,10 +26996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:34</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44398.82747685185</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27797,10 +27073,8 @@
           <t>4960344654</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:21</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44398.82732638889</v>
       </c>
       <c r="I372" t="n">
         <v>14</v>
@@ -27876,10 +27150,8 @@
           <t>4960365422</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:20</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44398.82731481481</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27947,10 +27219,8 @@
           <t>4960361073</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:05</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44398.82714120371</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -28018,10 +27288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:56</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44398.82703703704</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28097,10 +27365,8 @@
           <t>4960354115</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:46</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44398.8269212963</v>
       </c>
       <c r="I376" t="n">
         <v>19</v>
@@ -28176,10 +27442,8 @@
           <t>4960349920</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:37</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44398.82681712963</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28239,10 +27503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:32</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44398.82675925926</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28318,10 +27580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:18</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44398.82659722222</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28385,10 +27645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:18</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44398.82659722222</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28456,10 +27714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:15</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44398.8265625</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28531,10 +27787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:11</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44398.82651620371</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28607,10 +27861,8 @@
           <t>4960344654</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:08</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44398.82648148148</v>
       </c>
       <c r="I383" t="n">
         <v>35</v>
@@ -28686,10 +27938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:04</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44398.82643518518</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28765,10 +28015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:57</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44398.82635416667</v>
       </c>
       <c r="I385" t="n">
         <v>5</v>
@@ -28837,10 +28085,8 @@
           <t>4960351898</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:46</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44398.82622685185</v>
       </c>
       <c r="I386" t="n">
         <v>8</v>
@@ -28918,10 +28164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:37</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44398.82612268518</v>
       </c>
       <c r="I387" t="n">
         <v>18</v>
@@ -28985,10 +28229,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:25</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44398.8259837963</v>
       </c>
       <c r="I388" t="n">
         <v>18</v>
@@ -29057,10 +28299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:08</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44398.82578703704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29161,10 +28401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:08</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44398.82578703704</v>
       </c>
       <c r="I390" t="n">
         <v>17</v>
@@ -29228,10 +28466,8 @@
           <t>4960306949</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:07</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44398.82577546296</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29295,10 +28531,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:03</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44398.82572916667</v>
       </c>
       <c r="I392" t="n">
         <v>13</v>
@@ -29374,10 +28608,8 @@
           <t>4960334853</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:48:36</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44398.82541666667</v>
       </c>
       <c r="I393" t="n">
         <v>18</v>
@@ -29441,10 +28673,8 @@
           <t>4960334772</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:48:34</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44398.82539351852</v>
       </c>
       <c r="I394" t="n">
         <v>6</v>
@@ -29520,10 +28750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:48:25</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44398.82528935185</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29591,10 +28819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:48:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44398.82503472222</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29670,10 +28896,8 @@
           <t>4960332923</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:49</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44398.82487268518</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29745,10 +28969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:40</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44398.82476851852</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29816,10 +29038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:23</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44398.82457175926</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29891,10 +29111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:14</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44398.8244675926</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29970,10 +29188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:05</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44398.82436342593</v>
       </c>
       <c r="I401" t="n">
         <v>17</v>
@@ -30041,10 +29257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:00</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44398.82430555556</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30108,10 +29322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:00</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44398.82430555556</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30175,10 +29387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:59</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44398.82429398148</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30246,10 +29456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:45</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44398.82413194444</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30313,10 +29521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:43</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44398.8241087963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30388,10 +29594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:42</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44398.82409722222</v>
       </c>
       <c r="I407" t="n">
         <v>124</v>
@@ -30463,10 +29667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:39</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44398.8240625</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30534,10 +29736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:33</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44398.82399305556</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30610,10 +29810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:19</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44398.82383101852</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30677,10 +29875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:11</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44398.82373842593</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30756,10 +29952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:46:08</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44398.8237037037</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30827,10 +30021,8 @@
           <t>4960314486</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:59</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44398.82359953703</v>
       </c>
       <c r="I413" t="n">
         <v>10</v>
@@ -30898,10 +30090,8 @@
           <t>4960322833</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:44</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44398.82342592593</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30977,10 +30167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:36</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44398.82333333333</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31057,10 +30245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:23</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44398.82318287037</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31128,10 +30314,8 @@
           <t>4960312781</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:18</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44398.823125</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31199,10 +30383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:17</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44398.82311342593</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31270,10 +30452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:10</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44398.82303240741</v>
       </c>
       <c r="I419" t="n">
         <v>1382</v>
@@ -31343,10 +30523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:05</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44398.82297453703</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31422,10 +30600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:59</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44398.82290509259</v>
       </c>
       <c r="I421" t="n">
         <v>12</v>
@@ -31497,10 +30673,8 @@
           <t>4960315862</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:48</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44398.82277777778</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31564,10 +30738,8 @@
           <t>4960300027</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:08</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44398.82231481482</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31643,10 +30815,8 @@
           <t>4960304777</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:07</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44398.82230324074</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31722,10 +30892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:05</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44398.82228009259</v>
       </c>
       <c r="I425" t="n">
         <v>184</v>
@@ -31801,10 +30969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:02</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44398.82224537037</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31872,10 +31038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:00</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44398.82222222222</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31942,10 +31106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:40</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44398.82199074074</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -32021,10 +31183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:37</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44398.82195601852</v>
       </c>
       <c r="I429" t="n">
         <v>613</v>
@@ -32088,10 +31248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:29</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44398.82186342592</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32159,10 +31317,8 @@
           <t>4960306949</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:24</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44398.82180555556</v>
       </c>
       <c r="I431" t="n">
         <v>15</v>
@@ -32234,10 +31390,8 @@
           <t>4960297578</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:20</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44398.82175925926</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32305,10 +31459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44398.82174768519</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -32376,10 +31528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:13</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44398.82167824074</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32447,10 +31597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:07</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44398.82160879629</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32526,10 +31674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:07</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44398.82160879629</v>
       </c>
       <c r="I436" t="n">
         <v>7</v>
@@ -32593,10 +31739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:04</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44398.82157407407</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32672,10 +31816,8 @@
           <t>4960306089</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:04</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44398.82157407407</v>
       </c>
       <c r="I438" t="n">
         <v>10</v>
@@ -32747,10 +31889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:02</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44398.82155092592</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32825,10 +31965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:52</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44398.82143518519</v>
       </c>
       <c r="I440" t="n">
         <v>10</v>
@@ -32904,10 +32042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:52</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44398.82143518519</v>
       </c>
       <c r="I441" t="n">
         <v>9</v>
@@ -32976,10 +32112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:51</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44398.82142361111</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33055,10 +32189,8 @@
           <t>4960300890</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:35</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44398.82123842592</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -33126,10 +32258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:30</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44398.82118055555</v>
       </c>
       <c r="I444" t="n">
         <v>5</v>
@@ -33193,10 +32323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:27</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44398.82114583333</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33268,10 +32396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:23</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44398.82109953704</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33339,10 +32465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:22</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44398.82108796296</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33406,10 +32530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:19</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44398.82105324074</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33477,10 +32599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:17</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44398.82103009259</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33552,10 +32672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:16</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44398.82101851852</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33627,10 +32745,8 @@
           <t>4960300027</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:14</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44398.82099537037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33694,10 +32810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:08</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44398.82092592592</v>
       </c>
       <c r="I452" t="n">
         <v>35</v>
@@ -33761,10 +32875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:08</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44398.82092592592</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33832,10 +32944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:05</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44398.8208912037</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33911,10 +33021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:05</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44398.8208912037</v>
       </c>
       <c r="I455" t="n">
         <v>79</v>
@@ -33982,10 +33090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:03</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44398.82086805555</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34049,10 +33155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:03</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44398.82086805555</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34120,10 +33224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:03</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44398.82086805555</v>
       </c>
       <c r="I458" t="n">
         <v>394</v>
@@ -34187,10 +33289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:01</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44398.82084490741</v>
       </c>
       <c r="I459" t="n">
         <v>7</v>
@@ -34262,10 +33362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:57</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44398.82079861111</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34337,10 +33435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:51</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44398.82072916667</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34416,10 +33512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:51</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44398.82072916667</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34487,10 +33581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:50</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44398.82071759259</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34558,10 +33650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:47</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44398.82068287037</v>
       </c>
       <c r="I464" t="n">
         <v>858</v>
@@ -34629,10 +33719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:44</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44398.82064814815</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34708,10 +33796,8 @@
           <t>4960288664</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:42</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44398.820625</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34775,10 +33861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:41</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44398.82061342592</v>
       </c>
       <c r="I467" t="n">
         <v>7</v>
@@ -34854,10 +33938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:19</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44398.8203587963</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34925,10 +34007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:19</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44398.8203587963</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35004,10 +34084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:09</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44398.82024305555</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35079,10 +34157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:08</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44398.82023148148</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35150,10 +34226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:40:54</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44398.82006944445</v>
       </c>
       <c r="I472" t="n">
         <v>3</v>
